--- a/ISO27001.xlsx
+++ b/ISO27001.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshabazad/Files/cyber security/Iso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshabazad/Files/cyber security/Iso/Iso 27001 note/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E8BE5-C791-5C43-97DA-DC554DDC4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A8D35-E0DA-A540-9A17-32D76E9E5702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{F08D423E-9944-3B45-ACB1-153DFBFB5C3F}"/>
+    <workbookView xWindow="-3800" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{F08D423E-9944-3B45-ACB1-153DFBFB5C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO Checklist" sheetId="10" r:id="rId1"/>
-    <sheet name="mandatory non mandatory" sheetId="11" r:id="rId2"/>
-    <sheet name="audit usecase" sheetId="12" r:id="rId3"/>
+    <sheet name="Mandatory  Non-mandatory" sheetId="11" r:id="rId2"/>
+    <sheet name="Audit usecase" sheetId="12" r:id="rId3"/>
     <sheet name="Fintech audit" sheetId="4" r:id="rId4"/>
     <sheet name="nist" sheetId="13" r:id="rId5"/>
-    <sheet name="nist iso allignment" sheetId="14" r:id="rId6"/>
+    <sheet name="Nist iso allignment" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ISO Checklist'!$A$1:$I$38</definedName>
@@ -2350,32 +2350,6 @@
     <t>Information Security Event Reporting</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Here is the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISO 27001:2022 Physical Controls (A.7.1 to A.7.14) Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, formatted exactly as per your requested structure.</t>
-    </r>
-  </si>
-  <si>
     <t>Define and enforce security perimeters to protect areas that contain sensitive assets.</t>
   </si>
   <si>
@@ -5169,6 +5143,22 @@
   </si>
   <si>
     <t>The information security management system (ISMS) is established to safeguard confidentiality, integrity, and availability across services.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISO 27001:2022 Physical Controls (A.7.1 to A.7.14) Table.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5419,7 +5409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5462,20 +5452,6 @@
     <xf numFmtId="16" fontId="17" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5492,14 +5468,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17615,16 +17599,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83A9833-1AEF-B74E-A348-08D8B29100AE}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="117.33203125" customWidth="1"/>
@@ -18726,7 +18710,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>768</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -18768,7 +18752,7 @@
         <v>318</v>
       </c>
       <c r="D59" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E59" t="s">
         <v>588</v>
@@ -18791,7 +18775,7 @@
         <v>319</v>
       </c>
       <c r="D60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E60" t="s">
         <v>591</v>
@@ -18814,7 +18798,7 @@
         <v>320</v>
       </c>
       <c r="D61" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E61" t="s">
         <v>594</v>
@@ -18837,7 +18821,7 @@
         <v>321</v>
       </c>
       <c r="D62" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E62" t="s">
         <v>597</v>
@@ -18860,7 +18844,7 @@
         <v>322</v>
       </c>
       <c r="D63" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E63" t="s">
         <v>600</v>
@@ -18883,7 +18867,7 @@
         <v>323</v>
       </c>
       <c r="D64" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E64" t="s">
         <v>603</v>
@@ -18906,7 +18890,7 @@
         <v>324</v>
       </c>
       <c r="D65" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E65" t="s">
         <v>606</v>
@@ -18929,7 +18913,7 @@
         <v>326</v>
       </c>
       <c r="D66" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E66" t="s">
         <v>609</v>
@@ -18952,7 +18936,7 @@
         <v>328</v>
       </c>
       <c r="D67" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E67" t="s">
         <v>612</v>
@@ -18975,7 +18959,7 @@
         <v>330</v>
       </c>
       <c r="D68" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E68" t="s">
         <v>615</v>
@@ -18998,7 +18982,7 @@
         <v>332</v>
       </c>
       <c r="D69" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E69" t="s">
         <v>618</v>
@@ -19021,7 +19005,7 @@
         <v>334</v>
       </c>
       <c r="D70" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E70" t="s">
         <v>621</v>
@@ -19044,7 +19028,7 @@
         <v>336</v>
       </c>
       <c r="D71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E71" t="s">
         <v>624</v>
@@ -19064,10 +19048,10 @@
         <v>404</v>
       </c>
       <c r="C72" t="s">
+        <v>781</v>
+      </c>
+      <c r="D72" t="s">
         <v>782</v>
-      </c>
-      <c r="D72" t="s">
-        <v>783</v>
       </c>
       <c r="E72" t="s">
         <v>627</v>
@@ -19112,13 +19096,13 @@
         <v>51</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C77" t="s">
         <v>339</v>
       </c>
       <c r="D77" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E77" t="s">
         <v>630</v>
@@ -19135,7 +19119,7 @@
         <v>53</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C78" t="s">
         <v>340</v>
@@ -19158,13 +19142,13 @@
         <v>55</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C79" t="s">
         <v>342</v>
       </c>
       <c r="D79" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E79" t="s">
         <v>636</v>
@@ -19181,7 +19165,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C80" t="s">
         <v>344</v>
@@ -19204,13 +19188,13 @@
         <v>57</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C81" t="s">
         <v>346</v>
       </c>
       <c r="D81" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E81" t="s">
         <v>642</v>
@@ -19227,7 +19211,7 @@
         <v>348</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C82" t="s">
         <v>349</v>
@@ -19250,7 +19234,7 @@
         <v>350</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C83" t="s">
         <v>351</v>
@@ -19273,7 +19257,7 @@
         <v>352</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C84" t="s">
         <v>353</v>
@@ -19296,7 +19280,7 @@
         <v>354</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C85" t="s">
         <v>355</v>
@@ -19319,7 +19303,7 @@
         <v>356</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C86" t="s">
         <v>357</v>
@@ -19342,13 +19326,13 @@
         <v>358</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C87" t="s">
         <v>359</v>
       </c>
       <c r="D87" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E87" t="s">
         <v>665</v>
@@ -19365,7 +19349,7 @@
         <v>360</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C88" t="s">
         <v>361</v>
@@ -19388,7 +19372,7 @@
         <v>362</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C89" t="s">
         <v>363</v>
@@ -19411,7 +19395,7 @@
         <v>364</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C90" t="s">
         <v>365</v>
@@ -19434,7 +19418,7 @@
         <v>366</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C91" t="s">
         <v>367</v>
@@ -19457,7 +19441,7 @@
         <v>368</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C92" t="s">
         <v>369</v>
@@ -19480,7 +19464,7 @@
         <v>370</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C93" t="s">
         <v>371</v>
@@ -19503,7 +19487,7 @@
         <v>373</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C94" t="s">
         <v>374</v>
@@ -19526,7 +19510,7 @@
         <v>375</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C95" t="s">
         <v>376</v>
@@ -19549,7 +19533,7 @@
         <v>377</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C96" t="s">
         <v>60</v>
@@ -19572,7 +19556,7 @@
         <v>378</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C97" t="s">
         <v>379</v>
@@ -19595,7 +19579,7 @@
         <v>380</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C98" t="s">
         <v>381</v>
@@ -19618,13 +19602,13 @@
         <v>382</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C99" t="s">
         <v>383</v>
       </c>
       <c r="D99" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E99" t="s">
         <v>711</v>
@@ -19633,7 +19617,7 @@
         <v>712</v>
       </c>
       <c r="G99" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -19641,13 +19625,13 @@
         <v>384</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C100" t="s">
         <v>385</v>
       </c>
       <c r="D100" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E100" t="s">
         <v>713</v>
@@ -19656,7 +19640,7 @@
         <v>714</v>
       </c>
       <c r="G100" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -19664,13 +19648,13 @@
         <v>386</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C101" t="s">
+        <v>792</v>
+      </c>
+      <c r="D101" t="s">
         <v>793</v>
-      </c>
-      <c r="D101" t="s">
-        <v>794</v>
       </c>
       <c r="E101" t="s">
         <v>715</v>
@@ -19687,13 +19671,13 @@
         <v>387</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C102" t="s">
         <v>388</v>
       </c>
       <c r="D102" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E102" t="s">
         <v>718</v>
@@ -19710,7 +19694,7 @@
         <v>389</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C103" t="s">
         <v>390</v>
@@ -19733,7 +19717,7 @@
         <v>391</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C104" t="s">
         <v>392</v>
@@ -19756,7 +19740,7 @@
         <v>393</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C105" t="s">
         <v>394</v>
@@ -19779,7 +19763,7 @@
         <v>395</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C106" t="s">
         <v>396</v>
@@ -19802,13 +19786,13 @@
         <v>397</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C107" t="s">
         <v>398</v>
       </c>
       <c r="D107" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E107" t="s">
         <v>737</v>
@@ -19825,7 +19809,7 @@
         <v>399</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C108" t="s">
         <v>42</v>
@@ -19848,7 +19832,7 @@
         <v>400</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C109" t="s">
         <v>401</v>
@@ -19871,10 +19855,10 @@
         <v>402</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C110" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D110" t="s">
         <v>748</v>
@@ -19899,8 +19883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1354AA7C-F683-2640-AE6F-660B59DCF392}">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19911,21 +19895,21 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -19933,13 +19917,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C5" t="s">
         <v>803</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>804</v>
-      </c>
-      <c r="D5" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -19947,13 +19931,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C6" t="s">
         <v>806</v>
       </c>
-      <c r="C6" t="s">
-        <v>807</v>
-      </c>
       <c r="D6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -19961,13 +19945,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" t="s">
         <v>808</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>809</v>
-      </c>
-      <c r="D7" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -19975,13 +19959,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C8" t="s">
         <v>811</v>
       </c>
-      <c r="C8" t="s">
-        <v>812</v>
-      </c>
       <c r="D8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -19989,13 +19973,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C9" t="s">
         <v>813</v>
       </c>
-      <c r="C9" t="s">
-        <v>814</v>
-      </c>
       <c r="D9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -20003,13 +19987,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C10" t="s">
         <v>815</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>816</v>
-      </c>
-      <c r="D10" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -20017,13 +20001,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C11" t="s">
         <v>818</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>819</v>
-      </c>
-      <c r="D11" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -20031,13 +20015,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C12" t="s">
         <v>821</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>822</v>
-      </c>
-      <c r="D12" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -20045,13 +20029,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>823</v>
+      </c>
+      <c r="C13" t="s">
         <v>824</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>825</v>
-      </c>
-      <c r="D13" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -20059,13 +20043,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>826</v>
+      </c>
+      <c r="C14" t="s">
         <v>827</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>828</v>
-      </c>
-      <c r="D14" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -20073,13 +20057,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>829</v>
+      </c>
+      <c r="C15" t="s">
         <v>830</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>831</v>
-      </c>
-      <c r="D15" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -20087,13 +20071,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>832</v>
+      </c>
+      <c r="C16" t="s">
         <v>833</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>834</v>
-      </c>
-      <c r="D16" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -20101,13 +20085,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C17" t="s">
         <v>836</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>837</v>
-      </c>
-      <c r="D17" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -20115,13 +20099,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C18" t="s">
         <v>839</v>
       </c>
-      <c r="C18" t="s">
-        <v>840</v>
-      </c>
       <c r="D18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -20129,29 +20113,29 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>840</v>
+      </c>
+      <c r="C19" t="s">
         <v>841</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>842</v>
-      </c>
-      <c r="D19" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -20159,10 +20143,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C24" t="s">
         <v>846</v>
-      </c>
-      <c r="C24" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -20170,10 +20154,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>847</v>
+      </c>
+      <c r="C25" t="s">
         <v>848</v>
-      </c>
-      <c r="C25" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -20181,10 +20165,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>849</v>
+      </c>
+      <c r="C26" t="s">
         <v>850</v>
-      </c>
-      <c r="C26" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -20192,7 +20176,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -20203,10 +20187,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
+        <v>852</v>
+      </c>
+      <c r="C28" t="s">
         <v>853</v>
-      </c>
-      <c r="C28" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -20214,7 +20198,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -20225,10 +20209,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
+        <v>855</v>
+      </c>
+      <c r="C30" t="s">
         <v>856</v>
-      </c>
-      <c r="C30" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -20236,10 +20220,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
+        <v>857</v>
+      </c>
+      <c r="C31" t="s">
         <v>858</v>
-      </c>
-      <c r="C31" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -20247,10 +20231,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
+        <v>859</v>
+      </c>
+      <c r="C32" t="s">
         <v>860</v>
-      </c>
-      <c r="C32" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -20258,10 +20242,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
+        <v>861</v>
+      </c>
+      <c r="C33" t="s">
         <v>862</v>
-      </c>
-      <c r="C33" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -20269,10 +20253,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
+        <v>863</v>
+      </c>
+      <c r="C34" t="s">
         <v>864</v>
-      </c>
-      <c r="C34" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -20280,10 +20264,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
+        <v>865</v>
+      </c>
+      <c r="C35" t="s">
         <v>866</v>
-      </c>
-      <c r="C35" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -20291,10 +20275,10 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
+        <v>867</v>
+      </c>
+      <c r="C36" t="s">
         <v>868</v>
-      </c>
-      <c r="C36" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -20302,10 +20286,10 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
+        <v>869</v>
+      </c>
+      <c r="C37" t="s">
         <v>870</v>
-      </c>
-      <c r="C37" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -20313,10 +20297,10 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
+        <v>871</v>
+      </c>
+      <c r="C38" t="s">
         <v>872</v>
-      </c>
-      <c r="C38" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -20324,10 +20308,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
+        <v>873</v>
+      </c>
+      <c r="C39" t="s">
         <v>874</v>
-      </c>
-      <c r="C39" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -20335,10 +20319,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
+        <v>875</v>
+      </c>
+      <c r="C40" t="s">
         <v>876</v>
-      </c>
-      <c r="C40" t="s">
-        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -20362,117 +20346,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>878</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>880</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>881</v>
-      </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="269" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="27" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>1661</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20483,9 +20467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5083FAF-F776-0F44-8561-AD5157E76DAE}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3:L3"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20511,62 +20495,62 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>879</v>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -20613,7 +20597,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -21546,7 +21530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96923824-464F-B249-9D13-F2B51E95862E}">
   <dimension ref="A1:C1114"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -21557,214 +21541,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>882</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="14" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="14" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="14" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="14" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="14" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="14" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="14" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="B13" s="14" t="s">
         <v>889</v>
       </c>
-      <c r="B13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="14" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="14" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="B19" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="B19" s="14" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="14" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="14" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="14" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="14" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="14" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="14" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="14" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="14" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="B29" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="B29" s="14" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
+      <c r="B31" s="14" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="14" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="B33" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="B33" s="14" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+      <c r="B35" s="14" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="14" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="31"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="14" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="14" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="14" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="14" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="B41" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="B41" s="14" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
+      <c r="B43" s="14" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="14" t="s">
-        <v>909</v>
-      </c>
-    </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
+      <c r="A44" s="31"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
@@ -21899,18 +21883,18 @@
       <c r="A142" s="13"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="24"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="16"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
+      <c r="A145" s="32"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="24"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="16"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
+      <c r="A147" s="32"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
@@ -22396,59 +22380,59 @@
       <c r="A495" s="16"/>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A497" s="24"/>
+      <c r="A497" s="32"/>
       <c r="B497" s="16"/>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A498" s="24"/>
+      <c r="A498" s="32"/>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A499" s="24"/>
+      <c r="A499" s="32"/>
       <c r="B499" s="16"/>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500" s="24"/>
+      <c r="A500" s="32"/>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A503" s="24"/>
+      <c r="A503" s="32"/>
       <c r="B503" s="16"/>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A504" s="24"/>
+      <c r="A504" s="32"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505" s="24"/>
+      <c r="A505" s="32"/>
       <c r="B505" s="16"/>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A506" s="24"/>
+      <c r="A506" s="32"/>
       <c r="B506" s="16"/>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507" s="24"/>
+      <c r="A507" s="32"/>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="24"/>
+      <c r="A511" s="32"/>
       <c r="B511" s="16"/>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A512" s="24"/>
+      <c r="A512" s="32"/>
       <c r="B512" s="16"/>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513" s="24"/>
+      <c r="A513" s="32"/>
       <c r="B513" s="16"/>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514" s="24"/>
+      <c r="A514" s="32"/>
       <c r="B514" s="16"/>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A515" s="24"/>
+      <c r="A515" s="32"/>
       <c r="B515" s="16"/>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A516" s="24"/>
+      <c r="A516" s="32"/>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
@@ -22457,62 +22441,62 @@
       <c r="A524" s="15"/>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A527" s="24"/>
+      <c r="A527" s="32"/>
       <c r="B527" s="16"/>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A528" s="24"/>
+      <c r="A528" s="32"/>
       <c r="B528" s="16"/>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529" s="24"/>
+      <c r="A529" s="32"/>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A530" s="24"/>
+      <c r="A530" s="32"/>
       <c r="B530" s="16"/>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="24"/>
+      <c r="A531" s="32"/>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="24"/>
+      <c r="A532" s="32"/>
       <c r="B532" s="16"/>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="24"/>
+      <c r="A533" s="32"/>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="24"/>
+      <c r="A534" s="32"/>
       <c r="B534" s="16"/>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A535" s="24"/>
+      <c r="A535" s="32"/>
       <c r="B535" s="16"/>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="24"/>
+      <c r="A536" s="32"/>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="24"/>
+      <c r="A537" s="32"/>
       <c r="B537" s="16"/>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="24"/>
+      <c r="A538" s="32"/>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="24"/>
+      <c r="A539" s="32"/>
       <c r="B539" s="16"/>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="24"/>
+      <c r="A540" s="32"/>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="24"/>
-      <c r="B541" s="24"/>
+      <c r="A541" s="32"/>
+      <c r="B541" s="32"/>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="24"/>
-      <c r="B542" s="24"/>
+      <c r="A542" s="32"/>
+      <c r="B542" s="32"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="16"/>
@@ -22710,105 +22694,105 @@
       <c r="A696" s="14"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A698" s="24"/>
+      <c r="A698" s="32"/>
       <c r="B698" s="16"/>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A699" s="24"/>
+      <c r="A699" s="32"/>
       <c r="B699" s="16"/>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A700" s="24"/>
+      <c r="A700" s="32"/>
       <c r="B700" s="16"/>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A701" s="24"/>
+      <c r="A701" s="32"/>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A702" s="24"/>
+      <c r="A702" s="32"/>
       <c r="B702" s="16"/>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A703" s="24"/>
+      <c r="A703" s="32"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A704" s="24"/>
+      <c r="A704" s="32"/>
       <c r="B704" s="16"/>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A705" s="24"/>
+      <c r="A705" s="32"/>
       <c r="B705" s="16"/>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A706" s="24"/>
+      <c r="A706" s="32"/>
       <c r="B706" s="16"/>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A707" s="24"/>
+      <c r="A707" s="32"/>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A708" s="24"/>
+      <c r="A708" s="32"/>
       <c r="B708" s="16"/>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A709" s="24"/>
+      <c r="A709" s="32"/>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A710" s="24"/>
+      <c r="A710" s="32"/>
       <c r="B710" s="16"/>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A711" s="24"/>
+      <c r="A711" s="32"/>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A712" s="24"/>
+      <c r="A712" s="32"/>
       <c r="B712" s="16"/>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A713" s="24"/>
+      <c r="A713" s="32"/>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A714" s="24"/>
+      <c r="A714" s="32"/>
       <c r="B714" s="16"/>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A715" s="24"/>
+      <c r="A715" s="32"/>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A716" s="24"/>
+      <c r="A716" s="32"/>
       <c r="B716" s="16"/>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A717" s="24"/>
+      <c r="A717" s="32"/>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A718" s="24"/>
+      <c r="A718" s="32"/>
       <c r="B718" s="16"/>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A719" s="24"/>
+      <c r="A719" s="32"/>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A720" s="24"/>
+      <c r="A720" s="32"/>
       <c r="B720" s="16"/>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A721" s="24"/>
+      <c r="A721" s="32"/>
       <c r="B721" s="16"/>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A722" s="24"/>
+      <c r="A722" s="32"/>
       <c r="B722" s="16"/>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A723" s="24"/>
+      <c r="A723" s="32"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A724" s="24"/>
+      <c r="A724" s="32"/>
       <c r="B724" s="16"/>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A725" s="24"/>
+      <c r="A725" s="32"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="16"/>
@@ -22832,83 +22816,83 @@
       <c r="A751" s="15"/>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A754" s="24"/>
+      <c r="A754" s="32"/>
       <c r="B754" s="16"/>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A755" s="24"/>
+      <c r="A755" s="32"/>
       <c r="B755" s="16"/>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A756" s="24"/>
+      <c r="A756" s="32"/>
       <c r="B756" s="16"/>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A757" s="24"/>
+      <c r="A757" s="32"/>
       <c r="B757" s="16"/>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A758" s="24"/>
+      <c r="A758" s="32"/>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A759" s="24"/>
+      <c r="A759" s="32"/>
       <c r="B759" s="16"/>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A760" s="24"/>
+      <c r="A760" s="32"/>
       <c r="B760" s="16"/>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A761" s="24"/>
+      <c r="A761" s="32"/>
       <c r="B761" s="16"/>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A762" s="24"/>
+      <c r="A762" s="32"/>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A763" s="24"/>
+      <c r="A763" s="32"/>
       <c r="B763" s="16"/>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A764" s="24"/>
+      <c r="A764" s="32"/>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A765" s="24"/>
+      <c r="A765" s="32"/>
       <c r="B765" s="16"/>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A766" s="24"/>
+      <c r="A766" s="32"/>
       <c r="B766" s="16"/>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A767" s="24"/>
+      <c r="A767" s="32"/>
       <c r="B767" s="16"/>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A768" s="24"/>
+      <c r="A768" s="32"/>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A769" s="24"/>
+      <c r="A769" s="32"/>
       <c r="B769" s="16"/>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A770" s="24"/>
+      <c r="A770" s="32"/>
       <c r="B770" s="16"/>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A771" s="24"/>
+      <c r="A771" s="32"/>
       <c r="B771" s="16"/>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A772" s="24"/>
+      <c r="A772" s="32"/>
       <c r="B772" s="16"/>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A773" s="24"/>
+      <c r="A773" s="32"/>
       <c r="B773" s="16"/>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A774" s="24"/>
+      <c r="A774" s="32"/>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="16"/>
@@ -23091,15 +23075,15 @@
       <c r="A885" s="16"/>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A887" s="24"/>
+      <c r="A887" s="32"/>
       <c r="B887" s="16"/>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A888" s="24"/>
+      <c r="A888" s="32"/>
       <c r="B888" s="16"/>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A889" s="24"/>
+      <c r="A889" s="32"/>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="16"/>
@@ -23298,49 +23282,49 @@
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="16"/>
-      <c r="B1040" s="24"/>
+      <c r="B1040" s="32"/>
       <c r="C1040" s="16"/>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1041" s="24"/>
+      <c r="B1041" s="32"/>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" s="16"/>
-      <c r="B1042" s="24"/>
+      <c r="B1042" s="32"/>
       <c r="C1042" s="16"/>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1043" s="24"/>
+      <c r="B1043" s="32"/>
       <c r="C1043" s="16"/>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1044" s="24"/>
+      <c r="B1044" s="32"/>
       <c r="C1044" s="16"/>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1045" s="24"/>
+      <c r="B1045" s="32"/>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1046" s="24"/>
+      <c r="A1046" s="32"/>
       <c r="B1046" s="16"/>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1047" s="24"/>
+      <c r="A1047" s="32"/>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1048" s="24"/>
+      <c r="A1048" s="32"/>
       <c r="B1048" s="16"/>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1049" s="24"/>
+      <c r="A1049" s="32"/>
       <c r="B1049" s="16"/>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1050" s="24"/>
+      <c r="A1050" s="32"/>
       <c r="B1050" s="16"/>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1051" s="24"/>
+      <c r="A1051" s="32"/>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" s="12"/>
@@ -23428,13 +23412,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A765:A768"/>
-    <mergeCell ref="A769:A774"/>
-    <mergeCell ref="A887:A889"/>
-    <mergeCell ref="B1040:B1045"/>
-    <mergeCell ref="B541:B542"/>
-    <mergeCell ref="A534:A540"/>
     <mergeCell ref="A1046:A1051"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A13:A18"/>
@@ -23451,6 +23428,13 @@
     <mergeCell ref="A503:A507"/>
     <mergeCell ref="A511:A516"/>
     <mergeCell ref="A527:A533"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A765:A768"/>
+    <mergeCell ref="A769:A774"/>
+    <mergeCell ref="A887:A889"/>
+    <mergeCell ref="B1040:B1045"/>
+    <mergeCell ref="B541:B542"/>
+    <mergeCell ref="A534:A540"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23461,7 +23445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F20F5D8-6053-F741-A09D-D4128851C399}">
   <dimension ref="A1:C324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
@@ -23473,1831 +23457,1831 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="19" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="19" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="73" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>914</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>917</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>920</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>923</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>926</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>192</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>931</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>934</v>
-      </c>
       <c r="C10" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>936</v>
-      </c>
       <c r="C11" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>938</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>941</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>944</v>
-      </c>
       <c r="C14" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>945</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>947</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>948</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>949</v>
-      </c>
       <c r="C16" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>951</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>952</v>
-      </c>
       <c r="C18" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>954</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>957</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>959</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>960</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>963</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>965</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>966</v>
-      </c>
       <c r="C23" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>968</v>
-      </c>
       <c r="C24" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>969</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>970</v>
-      </c>
       <c r="C25" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>971</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>972</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>974</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>975</v>
-      </c>
       <c r="C27" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>976</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>977</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>979</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>980</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>983</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>986</v>
-      </c>
       <c r="C31" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>987</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>988</v>
-      </c>
       <c r="C32" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
+        <v>988</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>989</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>990</v>
-      </c>
       <c r="C33" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>991</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>992</v>
-      </c>
       <c r="C34" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>993</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>994</v>
-      </c>
       <c r="C35" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>996</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
+        <v>997</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>998</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>999</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>1001</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>1002</v>
-      </c>
       <c r="C38" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>1004</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>1006</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>1007</v>
-      </c>
       <c r="C40" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>1008</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>1009</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>1012</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>1014</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>1015</v>
-      </c>
       <c r="C43" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>1016</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>1017</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>1019</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>1020</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>1022</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>1023</v>
-      </c>
       <c r="C46" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>1025</v>
-      </c>
       <c r="C47" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B48" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>1027</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>1028</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>1031</v>
-      </c>
       <c r="C50" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>1032</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>1033</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>1035</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="21" t="s">
         <v>1036</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>1039</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="21" t="s">
         <v>1040</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>1042</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>1043</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>1045</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>1046</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>1048</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>1049</v>
-      </c>
       <c r="C57" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>1050</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>1051</v>
-      </c>
       <c r="C58" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>1053</v>
-      </c>
       <c r="C59" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>1054</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>1055</v>
-      </c>
       <c r="C60" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>1056</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="21" t="s">
         <v>1057</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>1059</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="C62" s="21" t="s">
         <v>1060</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B63" s="21" t="s">
         <v>1062</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="C63" s="21" t="s">
         <v>1063</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>1065</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>1066</v>
-      </c>
       <c r="C64" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>1068</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>1070</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="21" t="s">
         <v>1071</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>1073</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="21" t="s">
         <v>1074</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>1076</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>1077</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>1079</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>1080</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>1082</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>1083</v>
-      </c>
       <c r="C70" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>1084</v>
       </c>
-      <c r="B71" s="21" t="s">
-        <v>1085</v>
-      </c>
       <c r="C71" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>1086</v>
       </c>
-      <c r="B72" s="21" t="s">
-        <v>1087</v>
-      </c>
       <c r="C72" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>1088</v>
       </c>
-      <c r="B73" s="21" t="s">
-        <v>1089</v>
-      </c>
       <c r="C73" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>1090</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="C74" s="21" t="s">
         <v>1091</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>1093</v>
       </c>
-      <c r="B75" s="21" t="s">
-        <v>1094</v>
-      </c>
       <c r="C75" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>1095</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="C76" s="21" t="s">
         <v>1096</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B77" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>1099</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="C78" s="21" t="s">
         <v>1100</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>1102</v>
       </c>
-      <c r="B79" s="21" t="s">
-        <v>1103</v>
-      </c>
       <c r="C79" s="21" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>1104</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>1105</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B81" s="21" t="s">
         <v>1107</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="C81" s="21" t="s">
         <v>1108</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>1110</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>1111</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B83" s="21" t="s">
         <v>1113</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>1114</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>1116</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>1117</v>
-      </c>
       <c r="C84" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B85" s="21" t="s">
         <v>1118</v>
       </c>
-      <c r="B85" s="21" t="s">
-        <v>1119</v>
-      </c>
       <c r="C85" s="21" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>1120</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>1121</v>
-      </c>
       <c r="C86" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>1122</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="C87" s="21" t="s">
         <v>1123</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B88" s="21" t="s">
         <v>1125</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>1126</v>
-      </c>
       <c r="C88" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B89" s="21" t="s">
         <v>1127</v>
       </c>
-      <c r="B89" s="21" t="s">
-        <v>1128</v>
-      </c>
       <c r="C89" s="21" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B90" s="21" t="s">
         <v>1129</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="C90" s="21" t="s">
         <v>1130</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B91" s="21" t="s">
         <v>1132</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>1133</v>
-      </c>
       <c r="C91" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B92" s="21" t="s">
         <v>1134</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="C92" s="21" t="s">
         <v>1135</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B93" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="B93" s="21" t="s">
-        <v>1138</v>
-      </c>
       <c r="C93" s="21" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B94" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>1140</v>
-      </c>
       <c r="C94" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B95" s="21" t="s">
         <v>1141</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>1142</v>
-      </c>
       <c r="C95" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B96" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>1144</v>
-      </c>
       <c r="C96" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B97" s="21" t="s">
         <v>1145</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>1146</v>
-      </c>
       <c r="C97" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B98" s="21" t="s">
         <v>1147</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="C98" s="21" t="s">
         <v>1148</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B99" s="21" t="s">
         <v>1150</v>
       </c>
-      <c r="B99" s="21" t="s">
-        <v>1151</v>
-      </c>
       <c r="C99" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B100" s="21" t="s">
         <v>1152</v>
       </c>
-      <c r="B100" s="21" t="s">
-        <v>1153</v>
-      </c>
       <c r="C100" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B101" s="21" t="s">
         <v>1154</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="C101" s="21" t="s">
         <v>1155</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B102" s="21" t="s">
         <v>1157</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>1158</v>
-      </c>
       <c r="C102" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B103" s="21" t="s">
         <v>1159</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="C103" s="21" t="s">
         <v>1160</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B104" s="21" t="s">
         <v>1162</v>
       </c>
-      <c r="B104" s="21" t="s">
-        <v>1163</v>
-      </c>
       <c r="C104" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B105" s="21" t="s">
         <v>1164</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="C105" s="21" t="s">
         <v>1165</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B106" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="B106" s="21" t="s">
-        <v>1168</v>
-      </c>
       <c r="C106" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B107" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C107" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B108" s="21" t="s">
         <v>1170</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>1171</v>
-      </c>
       <c r="C108" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B109" s="21" t="s">
         <v>1172</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="C109" s="21" t="s">
         <v>1173</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B110" s="21" t="s">
         <v>1175</v>
       </c>
-      <c r="B110" s="21" t="s">
-        <v>1176</v>
-      </c>
       <c r="C110" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B111" s="21" t="s">
         <v>1177</v>
       </c>
-      <c r="B111" s="21" t="s">
-        <v>1178</v>
-      </c>
       <c r="C111" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B112" s="21" t="s">
         <v>1179</v>
       </c>
-      <c r="B112" s="21" t="s">
-        <v>1180</v>
-      </c>
       <c r="C112" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B113" s="21" t="s">
         <v>1181</v>
       </c>
-      <c r="B113" s="21" t="s">
+      <c r="C113" s="21" t="s">
         <v>1182</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B114" s="21" t="s">
         <v>1184</v>
       </c>
-      <c r="B114" s="21" t="s">
-        <v>1185</v>
-      </c>
       <c r="C114" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B115" s="21" t="s">
         <v>1186</v>
       </c>
-      <c r="B115" s="21" t="s">
-        <v>1187</v>
-      </c>
       <c r="C115" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B116" s="21" t="s">
         <v>1188</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="C116" s="21" t="s">
         <v>1189</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B117" s="21" t="s">
         <v>1191</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="C117" s="21" t="s">
         <v>1192</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B118" s="21" t="s">
         <v>1194</v>
       </c>
-      <c r="B118" s="21" t="s">
-        <v>1195</v>
-      </c>
       <c r="C118" s="21" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B119" s="21" t="s">
         <v>1196</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="C119" s="21" t="s">
         <v>1197</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B120" s="21" t="s">
         <v>1199</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="C120" s="21" t="s">
         <v>1200</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B121" s="21" t="s">
         <v>1202</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="C121" s="21" t="s">
         <v>1203</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B122" s="21" t="s">
         <v>1205</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>1206</v>
-      </c>
       <c r="C122" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B123" s="21" t="s">
         <v>1207</v>
       </c>
-      <c r="B123" s="21" t="s">
-        <v>1208</v>
-      </c>
       <c r="C123" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B124" s="21" t="s">
         <v>1209</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="C124" s="21" t="s">
         <v>1210</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B125" s="21" t="s">
         <v>1212</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="C125" s="21" t="s">
         <v>1213</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>1215</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="C126" s="21" t="s">
         <v>1216</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B127" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="C127" s="21" t="s">
         <v>1219</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B128" s="21" t="s">
         <v>1221</v>
       </c>
-      <c r="B128" s="21" t="s">
-        <v>1222</v>
-      </c>
       <c r="C128" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B129" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="20" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B130" s="21" t="s">
         <v>1224</v>
       </c>
-      <c r="B130" s="21" t="s">
-        <v>1225</v>
-      </c>
       <c r="C130" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B131" s="21" t="s">
         <v>1226</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="C131" s="21" t="s">
         <v>1227</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B132" s="21" t="s">
         <v>1229</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="C132" s="21" t="s">
         <v>1230</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B133" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="C133" s="21" t="s">
         <v>1233</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B134" s="21" t="s">
         <v>1235</v>
       </c>
-      <c r="B134" s="21" t="s">
-        <v>1236</v>
-      </c>
       <c r="C134" s="21" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B135" s="21" t="s">
         <v>1237</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="C135" s="21" t="s">
         <v>1238</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B136" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="C136" s="21" t="s">
         <v>1241</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>1243</v>
       </c>
-      <c r="B137" s="21" t="s">
-        <v>1244</v>
-      </c>
       <c r="C137" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B138" s="21" t="s">
         <v>1245</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="C138" s="21" t="s">
         <v>1246</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B139" s="21" t="s">
         <v>1248</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="C139" s="21" t="s">
         <v>1249</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B140" s="21" t="s">
         <v>1251</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="C140" s="21" t="s">
         <v>1252</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B141" s="21" t="s">
         <v>1254</v>
       </c>
-      <c r="B141" s="21" t="s">
-        <v>1255</v>
-      </c>
       <c r="C141" s="21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B142" s="21" t="s">
         <v>1256</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="C142" s="21" t="s">
         <v>1257</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B143" s="21" t="s">
         <v>1259</v>
       </c>
-      <c r="B143" s="21" t="s">
-        <v>1260</v>
-      </c>
       <c r="C143" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B144" s="21" t="s">
         <v>1261</v>
       </c>
-      <c r="B144" s="21" t="s">
-        <v>1262</v>
-      </c>
       <c r="C144" s="21" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B145" s="21" t="s">
         <v>1263</v>
       </c>
-      <c r="B145" s="21" t="s">
-        <v>1264</v>
-      </c>
       <c r="C145" s="21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B146" s="21" t="s">
         <v>1265</v>
       </c>
-      <c r="B146" s="21" t="s">
-        <v>1266</v>
-      </c>
       <c r="C146" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B147" s="21" t="s">
         <v>1267</v>
       </c>
-      <c r="B147" s="21" t="s">
+      <c r="C147" s="21" t="s">
         <v>1268</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B148" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C148" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B149" s="21" t="s">
         <v>1271</v>
       </c>
-      <c r="B149" s="21" t="s">
+      <c r="C149" s="21" t="s">
         <v>1272</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B150" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C150" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B151" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C151" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B152" s="21" t="s">
         <v>1276</v>
       </c>
-      <c r="B152" s="21" t="s">
+      <c r="C152" s="21" t="s">
         <v>1277</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B153" s="21" t="s">
         <v>1279</v>
       </c>
-      <c r="B153" s="21" t="s">
+      <c r="C153" s="21" t="s">
         <v>1280</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B154" s="21" t="s">
         <v>1282</v>
       </c>
-      <c r="B154" s="21" t="s">
-        <v>1283</v>
-      </c>
       <c r="C154" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="20" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B155" s="21" t="s">
         <v>1284</v>
       </c>
-      <c r="B155" s="21" t="s">
-        <v>1285</v>
-      </c>
       <c r="C155" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="20" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B156" s="21" t="s">
         <v>1286</v>
       </c>
-      <c r="B156" s="21" t="s">
-        <v>1287</v>
-      </c>
       <c r="C156" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B157" s="21" t="s">
         <v>1288</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="C157" s="21" t="s">
         <v>1289</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B158" s="21" t="s">
         <v>1291</v>
       </c>
-      <c r="B158" s="21" t="s">
+      <c r="C158" s="21" t="s">
         <v>1292</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B159" s="21" t="s">
         <v>1294</v>
       </c>
-      <c r="B159" s="21" t="s">
+      <c r="C159" s="21" t="s">
         <v>1295</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B160" s="21" t="s">
         <v>1297</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="C160" s="21" t="s">
         <v>1298</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B161" s="21" t="s">
         <v>1300</v>
       </c>
-      <c r="B161" s="21" t="s">
-        <v>1301</v>
-      </c>
       <c r="C161" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B162" s="21" t="s">
         <v>1302</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="C162" s="21" t="s">
         <v>1303</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="20" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B163" s="21" t="s">
         <v>1305</v>
       </c>
-      <c r="B163" s="21" t="s">
-        <v>1306</v>
-      </c>
       <c r="C163" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B164" s="21" t="s">
         <v>1307</v>
       </c>
-      <c r="B164" s="21" t="s">
-        <v>1308</v>
-      </c>
       <c r="C164" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B165" s="21" t="s">
         <v>1309</v>
       </c>
-      <c r="B165" s="21" t="s">
+      <c r="C165" s="21" t="s">
         <v>1310</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B166" s="21" t="s">
         <v>1312</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="C166" s="21" t="s">
         <v>1313</v>
-      </c>
-      <c r="C166" s="21" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B167" s="21" t="s">
         <v>1315</v>
-      </c>
-      <c r="B167" s="21" t="s">
-        <v>1316</v>
       </c>
       <c r="C167" s="23">
         <v>45661</v>
@@ -25305,1729 +25289,1729 @@
     </row>
     <row r="168" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B168" s="21" t="s">
         <v>1317</v>
       </c>
-      <c r="B168" s="21" t="s">
-        <v>1318</v>
-      </c>
       <c r="C168" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B169" s="21" t="s">
         <v>1319</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="C169" s="21" t="s">
         <v>1320</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B170" s="21" t="s">
         <v>1322</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="C170" s="21" t="s">
         <v>1323</v>
-      </c>
-      <c r="C170" s="21" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B171" s="21" t="s">
         <v>1325</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="C171" s="21" t="s">
         <v>1326</v>
-      </c>
-      <c r="C171" s="21" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B172" s="21" t="s">
         <v>1328</v>
       </c>
-      <c r="B172" s="21" t="s">
-        <v>1329</v>
-      </c>
       <c r="C172" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B173" s="21" t="s">
         <v>1330</v>
       </c>
-      <c r="B173" s="21" t="s">
-        <v>1331</v>
-      </c>
       <c r="C173" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B174" s="21" t="s">
         <v>1332</v>
       </c>
-      <c r="B174" s="21" t="s">
-        <v>1333</v>
-      </c>
       <c r="C174" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B175" s="21" t="s">
         <v>1334</v>
       </c>
-      <c r="B175" s="21" t="s">
-        <v>1335</v>
-      </c>
       <c r="C175" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B176" s="21" t="s">
         <v>1336</v>
       </c>
-      <c r="B176" s="21" t="s">
-        <v>1337</v>
-      </c>
       <c r="C176" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="20" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B177" s="21" t="s">
         <v>1338</v>
       </c>
-      <c r="B177" s="21" t="s">
-        <v>1339</v>
-      </c>
       <c r="C177" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B178" s="21" t="s">
         <v>1340</v>
       </c>
-      <c r="B178" s="21" t="s">
-        <v>1341</v>
-      </c>
       <c r="C178" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B179" s="21" t="s">
         <v>1342</v>
       </c>
-      <c r="B179" s="21" t="s">
-        <v>1343</v>
-      </c>
       <c r="C179" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="20" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B180" s="21" t="s">
         <v>1344</v>
       </c>
-      <c r="B180" s="21" t="s">
-        <v>1345</v>
-      </c>
       <c r="C180" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="20" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B181" s="21" t="s">
         <v>1346</v>
       </c>
-      <c r="B181" s="21" t="s">
-        <v>1347</v>
-      </c>
       <c r="C181" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B182" s="21" t="s">
         <v>1348</v>
       </c>
-      <c r="B182" s="21" t="s">
-        <v>1349</v>
-      </c>
       <c r="C182" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B183" s="21" t="s">
         <v>1350</v>
       </c>
-      <c r="B183" s="21" t="s">
-        <v>1351</v>
-      </c>
       <c r="C183" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B184" s="21" t="s">
         <v>1352</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="C184" s="21" t="s">
         <v>1353</v>
-      </c>
-      <c r="C184" s="21" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="20" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B185" s="21" t="s">
         <v>1355</v>
       </c>
-      <c r="B185" s="21" t="s">
+      <c r="C185" s="21" t="s">
         <v>1356</v>
-      </c>
-      <c r="C185" s="21" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B186" s="21" t="s">
         <v>1358</v>
       </c>
-      <c r="B186" s="21" t="s">
+      <c r="C186" s="21" t="s">
         <v>1359</v>
-      </c>
-      <c r="C186" s="21" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B187" s="21" t="s">
         <v>1361</v>
       </c>
-      <c r="B187" s="21" t="s">
+      <c r="C187" s="21" t="s">
         <v>1362</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B188" s="21" t="s">
         <v>1364</v>
       </c>
-      <c r="B188" s="21" t="s">
-        <v>1365</v>
-      </c>
       <c r="C188" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="20" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B189" s="21" t="s">
         <v>1366</v>
       </c>
-      <c r="B189" s="21" t="s">
-        <v>1367</v>
-      </c>
       <c r="C189" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B190" s="21" t="s">
         <v>1368</v>
       </c>
-      <c r="B190" s="21" t="s">
-        <v>1369</v>
-      </c>
       <c r="C190" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="20" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B191" s="21" t="s">
         <v>1370</v>
       </c>
-      <c r="B191" s="21" t="s">
+      <c r="C191" s="21" t="s">
         <v>1371</v>
-      </c>
-      <c r="C191" s="21" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B192" s="21" t="s">
         <v>1373</v>
       </c>
-      <c r="B192" s="21" t="s">
+      <c r="C192" s="21" t="s">
         <v>1374</v>
-      </c>
-      <c r="C192" s="21" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B193" s="21" t="s">
         <v>1376</v>
       </c>
-      <c r="B193" s="21" t="s">
-        <v>1377</v>
-      </c>
       <c r="C193" s="21" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B194" s="21" t="s">
         <v>1378</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="C194" s="21" t="s">
         <v>1379</v>
-      </c>
-      <c r="C194" s="21" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B195" s="21" t="s">
         <v>1381</v>
       </c>
-      <c r="B195" s="21" t="s">
+      <c r="C195" s="21" t="s">
         <v>1382</v>
-      </c>
-      <c r="C195" s="21" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B196" s="21" t="s">
         <v>1384</v>
       </c>
-      <c r="B196" s="21" t="s">
+      <c r="C196" s="21" t="s">
         <v>1385</v>
-      </c>
-      <c r="C196" s="21" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B197" s="21" t="s">
         <v>1387</v>
       </c>
-      <c r="B197" s="21" t="s">
+      <c r="C197" s="21" t="s">
         <v>1388</v>
-      </c>
-      <c r="C197" s="21" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B198" s="21" t="s">
         <v>1390</v>
       </c>
-      <c r="B198" s="21" t="s">
-        <v>1391</v>
-      </c>
       <c r="C198" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B199" s="21" t="s">
         <v>1392</v>
       </c>
-      <c r="B199" s="21" t="s">
-        <v>1393</v>
-      </c>
       <c r="C199" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B200" s="21" t="s">
         <v>1394</v>
       </c>
-      <c r="B200" s="21" t="s">
-        <v>1395</v>
-      </c>
       <c r="C200" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B201" s="21" t="s">
         <v>1396</v>
       </c>
-      <c r="B201" s="21" t="s">
-        <v>1397</v>
-      </c>
       <c r="C201" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B202" s="21" t="s">
         <v>1398</v>
       </c>
-      <c r="B202" s="21" t="s">
-        <v>1399</v>
-      </c>
       <c r="C202" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B203" s="21" t="s">
         <v>1400</v>
       </c>
-      <c r="B203" s="21" t="s">
-        <v>1401</v>
-      </c>
       <c r="C203" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B204" s="21" t="s">
         <v>1402</v>
       </c>
-      <c r="B204" s="21" t="s">
-        <v>1403</v>
-      </c>
       <c r="C204" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B205" s="21" t="s">
         <v>1404</v>
       </c>
-      <c r="B205" s="21" t="s">
-        <v>1405</v>
-      </c>
       <c r="C205" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B206" s="21" t="s">
         <v>1406</v>
       </c>
-      <c r="B206" s="21" t="s">
-        <v>1407</v>
-      </c>
       <c r="C206" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B207" s="21" t="s">
         <v>1408</v>
       </c>
-      <c r="B207" s="21" t="s">
+      <c r="C207" s="21" t="s">
         <v>1409</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B208" s="21" t="s">
         <v>1411</v>
       </c>
-      <c r="B208" s="21" t="s">
+      <c r="C208" s="21" t="s">
         <v>1412</v>
-      </c>
-      <c r="C208" s="21" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B209" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C209" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C209" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B210" s="21" t="s">
         <v>1415</v>
       </c>
-      <c r="B210" s="21" t="s">
+      <c r="C210" s="21" t="s">
         <v>1416</v>
-      </c>
-      <c r="C210" s="21" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B211" s="21" t="s">
         <v>1418</v>
       </c>
-      <c r="B211" s="21" t="s">
-        <v>1419</v>
-      </c>
       <c r="C211" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B212" s="21" t="s">
         <v>1420</v>
       </c>
-      <c r="B212" s="21" t="s">
+      <c r="C212" s="21" t="s">
         <v>1421</v>
-      </c>
-      <c r="C212" s="21" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B213" s="21" t="s">
         <v>1423</v>
       </c>
-      <c r="B213" s="21" t="s">
-        <v>1424</v>
-      </c>
       <c r="C213" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B214" s="21" t="s">
         <v>1425</v>
       </c>
-      <c r="B214" s="21" t="s">
+      <c r="C214" s="21" t="s">
         <v>1426</v>
-      </c>
-      <c r="C214" s="21" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="20" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B215" s="21" t="s">
         <v>1428</v>
       </c>
-      <c r="B215" s="21" t="s">
-        <v>1429</v>
-      </c>
       <c r="C215" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B216" s="21" t="s">
         <v>1430</v>
       </c>
-      <c r="B216" s="21" t="s">
+      <c r="C216" s="21" t="s">
         <v>1431</v>
-      </c>
-      <c r="C216" s="21" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B217" s="21" t="s">
         <v>1433</v>
       </c>
-      <c r="B217" s="21" t="s">
-        <v>1434</v>
-      </c>
       <c r="C217" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B218" s="21" t="s">
         <v>1435</v>
       </c>
-      <c r="B218" s="21" t="s">
+      <c r="C218" s="21" t="s">
         <v>1436</v>
-      </c>
-      <c r="C218" s="21" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B219" s="21" t="s">
         <v>1438</v>
       </c>
-      <c r="B219" s="21" t="s">
+      <c r="C219" s="21" t="s">
         <v>1439</v>
-      </c>
-      <c r="C219" s="21" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B220" s="21" t="s">
         <v>1441</v>
       </c>
-      <c r="B220" s="21" t="s">
+      <c r="C220" s="21" t="s">
         <v>1442</v>
-      </c>
-      <c r="C220" s="21" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B221" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C221" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C221" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B222" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C222" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C222" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B223" s="21" t="s">
         <v>1446</v>
       </c>
-      <c r="B223" s="21" t="s">
+      <c r="C223" s="21" t="s">
         <v>1447</v>
-      </c>
-      <c r="C223" s="21" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B224" s="21" t="s">
         <v>1449</v>
       </c>
-      <c r="B224" s="21" t="s">
+      <c r="C224" s="21" t="s">
         <v>1450</v>
-      </c>
-      <c r="C224" s="21" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B225" s="21" t="s">
         <v>1452</v>
       </c>
-      <c r="B225" s="21" t="s">
+      <c r="C225" s="21" t="s">
         <v>1453</v>
-      </c>
-      <c r="C225" s="21" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B226" s="21" t="s">
         <v>1455</v>
       </c>
-      <c r="B226" s="21" t="s">
+      <c r="C226" s="21" t="s">
         <v>1456</v>
-      </c>
-      <c r="C226" s="21" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B227" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C227" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C227" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B228" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C228" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C228" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B229" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C229" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C229" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B230" s="21" t="s">
         <v>1461</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="C230" s="21" t="s">
         <v>1462</v>
-      </c>
-      <c r="C230" s="21" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B231" s="21" t="s">
         <v>1464</v>
       </c>
-      <c r="B231" s="21" t="s">
-        <v>1465</v>
-      </c>
       <c r="C231" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B232" s="21" t="s">
         <v>1466</v>
       </c>
-      <c r="B232" s="21" t="s">
+      <c r="C232" s="21" t="s">
         <v>1467</v>
-      </c>
-      <c r="C232" s="21" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B233" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C233" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C233" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B234" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C234" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C234" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B235" s="21" t="s">
         <v>1471</v>
       </c>
-      <c r="B235" s="21" t="s">
-        <v>1472</v>
-      </c>
       <c r="C235" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B236" s="21" t="s">
         <v>1473</v>
       </c>
-      <c r="B236" s="21" t="s">
-        <v>1474</v>
-      </c>
       <c r="C236" s="21" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B237" s="21" t="s">
         <v>1475</v>
       </c>
-      <c r="B237" s="21" t="s">
-        <v>1476</v>
-      </c>
       <c r="C237" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="20" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B238" s="21" t="s">
         <v>1477</v>
       </c>
-      <c r="B238" s="21" t="s">
-        <v>1478</v>
-      </c>
       <c r="C238" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B239" s="21" t="s">
         <v>1479</v>
       </c>
-      <c r="B239" s="21" t="s">
-        <v>1480</v>
-      </c>
       <c r="C239" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B240" s="21" t="s">
         <v>1481</v>
       </c>
-      <c r="B240" s="21" t="s">
-        <v>1482</v>
-      </c>
       <c r="C240" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B241" s="21" t="s">
         <v>1483</v>
       </c>
-      <c r="B241" s="21" t="s">
-        <v>1484</v>
-      </c>
       <c r="C241" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B242" s="21" t="s">
         <v>1485</v>
       </c>
-      <c r="B242" s="21" t="s">
-        <v>1486</v>
-      </c>
       <c r="C242" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B243" s="21" t="s">
         <v>1487</v>
       </c>
-      <c r="B243" s="21" t="s">
-        <v>1488</v>
-      </c>
       <c r="C243" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B244" s="21" t="s">
         <v>1489</v>
       </c>
-      <c r="B244" s="21" t="s">
-        <v>1490</v>
-      </c>
       <c r="C244" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B245" s="21" t="s">
         <v>1491</v>
       </c>
-      <c r="B245" s="21" t="s">
+      <c r="C245" s="21" t="s">
         <v>1492</v>
-      </c>
-      <c r="C245" s="21" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B246" s="21" t="s">
         <v>1494</v>
       </c>
-      <c r="B246" s="21" t="s">
+      <c r="C246" s="21" t="s">
         <v>1495</v>
-      </c>
-      <c r="C246" s="21" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B247" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C247" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C247" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B248" s="21" t="s">
         <v>1498</v>
       </c>
-      <c r="B248" s="21" t="s">
+      <c r="C248" s="21" t="s">
         <v>1499</v>
-      </c>
-      <c r="C248" s="21" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B249" s="21" t="s">
         <v>1501</v>
       </c>
-      <c r="B249" s="21" t="s">
-        <v>1502</v>
-      </c>
       <c r="C249" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B250" s="21" t="s">
         <v>1503</v>
       </c>
-      <c r="B250" s="21" t="s">
+      <c r="C250" s="21" t="s">
         <v>1504</v>
-      </c>
-      <c r="C250" s="21" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B251" s="21" t="s">
         <v>1506</v>
       </c>
-      <c r="B251" s="21" t="s">
+      <c r="C251" s="21" t="s">
         <v>1507</v>
-      </c>
-      <c r="C251" s="21" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B252" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C252" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C252" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B253" s="21" t="s">
         <v>1510</v>
       </c>
-      <c r="B253" s="21" t="s">
+      <c r="C253" s="21" t="s">
         <v>1511</v>
-      </c>
-      <c r="C253" s="21" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B254" s="21" t="s">
         <v>1513</v>
       </c>
-      <c r="B254" s="21" t="s">
-        <v>1514</v>
-      </c>
       <c r="C254" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B255" s="21" t="s">
         <v>1515</v>
       </c>
-      <c r="B255" s="21" t="s">
-        <v>1516</v>
-      </c>
       <c r="C255" s="21" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B256" s="21" t="s">
         <v>1517</v>
       </c>
-      <c r="B256" s="21" t="s">
-        <v>1518</v>
-      </c>
       <c r="C256" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B258" s="21" t="s">
         <v>1520</v>
       </c>
-      <c r="B258" s="21" t="s">
-        <v>1521</v>
-      </c>
       <c r="C258" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B259" s="21" t="s">
         <v>1522</v>
       </c>
-      <c r="B259" s="21" t="s">
-        <v>1523</v>
-      </c>
       <c r="C259" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B260" s="21" t="s">
         <v>1524</v>
       </c>
-      <c r="B260" s="21" t="s">
-        <v>1525</v>
-      </c>
       <c r="C260" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B261" s="21" t="s">
         <v>1526</v>
       </c>
-      <c r="B261" s="21" t="s">
-        <v>1527</v>
-      </c>
       <c r="C261" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B262" s="21" t="s">
         <v>1528</v>
       </c>
-      <c r="B262" s="21" t="s">
-        <v>1529</v>
-      </c>
       <c r="C262" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B263" s="21" t="s">
         <v>1530</v>
       </c>
-      <c r="B263" s="21" t="s">
-        <v>1531</v>
-      </c>
       <c r="C263" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="20" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B264" s="21" t="s">
         <v>1532</v>
       </c>
-      <c r="B264" s="21" t="s">
-        <v>1533</v>
-      </c>
       <c r="C264" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="20" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B265" s="21" t="s">
         <v>1534</v>
       </c>
-      <c r="B265" s="21" t="s">
-        <v>1535</v>
-      </c>
       <c r="C265" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B266" s="21" t="s">
         <v>1536</v>
       </c>
-      <c r="B266" s="21" t="s">
-        <v>1537</v>
-      </c>
       <c r="C266" s="21" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B267" s="21" t="s">
         <v>1538</v>
       </c>
-      <c r="B267" s="21" t="s">
-        <v>1539</v>
-      </c>
       <c r="C267" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B268" s="21" t="s">
         <v>1540</v>
       </c>
-      <c r="B268" s="21" t="s">
-        <v>1541</v>
-      </c>
       <c r="C268" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B269" s="21" t="s">
         <v>1542</v>
       </c>
-      <c r="B269" s="21" t="s">
-        <v>1543</v>
-      </c>
       <c r="C269" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B270" s="21" t="s">
         <v>1544</v>
       </c>
-      <c r="B270" s="21" t="s">
-        <v>1545</v>
-      </c>
       <c r="C270" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B271" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C271" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C271" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B272" s="21" t="s">
         <v>1547</v>
       </c>
-      <c r="B272" s="21" t="s">
-        <v>1548</v>
-      </c>
       <c r="C272" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B273" s="21" t="s">
         <v>1549</v>
       </c>
-      <c r="B273" s="21" t="s">
-        <v>1550</v>
-      </c>
       <c r="C273" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B274" s="21" t="s">
         <v>1551</v>
       </c>
-      <c r="B274" s="21" t="s">
-        <v>1552</v>
-      </c>
       <c r="C274" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B275" s="21" t="s">
         <v>1553</v>
       </c>
-      <c r="B275" s="21" t="s">
-        <v>1554</v>
-      </c>
       <c r="C275" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B276" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B277" s="21" t="s">
         <v>1557</v>
       </c>
-      <c r="B277" s="21" t="s">
-        <v>1558</v>
-      </c>
       <c r="C277" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="20" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B278" s="21" t="s">
         <v>1559</v>
       </c>
-      <c r="B278" s="21" t="s">
-        <v>1560</v>
-      </c>
       <c r="C278" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B279" s="21" t="s">
         <v>1561</v>
       </c>
-      <c r="B279" s="21" t="s">
-        <v>1562</v>
-      </c>
       <c r="C279" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B280" s="21" t="s">
         <v>1563</v>
       </c>
-      <c r="B280" s="21" t="s">
+      <c r="C280" s="21" t="s">
         <v>1564</v>
-      </c>
-      <c r="C280" s="21" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B281" s="21" t="s">
         <v>1566</v>
       </c>
-      <c r="B281" s="21" t="s">
-        <v>1567</v>
-      </c>
       <c r="C281" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B282" s="21" t="s">
         <v>1568</v>
       </c>
-      <c r="B282" s="21" t="s">
-        <v>1569</v>
-      </c>
       <c r="C282" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B283" s="21" t="s">
         <v>1570</v>
       </c>
-      <c r="B283" s="21" t="s">
-        <v>1571</v>
-      </c>
       <c r="C283" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B284" s="21" t="s">
         <v>1572</v>
       </c>
-      <c r="B284" s="21" t="s">
-        <v>1573</v>
-      </c>
       <c r="C284" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="20" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B285" s="21" t="s">
         <v>1574</v>
       </c>
-      <c r="B285" s="21" t="s">
-        <v>1575</v>
-      </c>
       <c r="C285" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B286" s="21" t="s">
         <v>1576</v>
       </c>
-      <c r="B286" s="21" t="s">
-        <v>1577</v>
-      </c>
       <c r="C286" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B287" s="21" t="s">
         <v>1578</v>
       </c>
-      <c r="B287" s="21" t="s">
-        <v>1579</v>
-      </c>
       <c r="C287" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B288" s="21" t="s">
         <v>1580</v>
       </c>
-      <c r="B288" s="21" t="s">
-        <v>1581</v>
-      </c>
       <c r="C288" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="20" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B289" s="21" t="s">
         <v>1582</v>
       </c>
-      <c r="B289" s="21" t="s">
-        <v>1583</v>
-      </c>
       <c r="C289" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="20" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B290" s="21" t="s">
         <v>1584</v>
       </c>
-      <c r="B290" s="21" t="s">
-        <v>1585</v>
-      </c>
       <c r="C290" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B291" s="21" t="s">
         <v>1586</v>
       </c>
-      <c r="B291" s="21" t="s">
+      <c r="C291" s="21" t="s">
         <v>1587</v>
-      </c>
-      <c r="C291" s="21" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B292" s="21" t="s">
         <v>1589</v>
       </c>
-      <c r="B292" s="21" t="s">
+      <c r="C292" s="21" t="s">
         <v>1590</v>
-      </c>
-      <c r="C292" s="21" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B293" s="21" t="s">
         <v>1592</v>
       </c>
-      <c r="B293" s="21" t="s">
+      <c r="C293" s="21" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="20" t="s">
         <v>1593</v>
       </c>
-      <c r="C293" s="21" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="20" t="s">
+      <c r="B294" s="21" t="s">
         <v>1594</v>
       </c>
-      <c r="B294" s="21" t="s">
+      <c r="C294" s="21" t="s">
         <v>1595</v>
-      </c>
-      <c r="C294" s="21" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B295" s="21" t="s">
         <v>1597</v>
       </c>
-      <c r="B295" s="21" t="s">
-        <v>1598</v>
-      </c>
       <c r="C295" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="20" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B296" s="21" t="s">
         <v>1599</v>
       </c>
-      <c r="B296" s="21" t="s">
-        <v>1600</v>
-      </c>
       <c r="C296" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="20" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B297" s="21" t="s">
         <v>1601</v>
       </c>
-      <c r="B297" s="21" t="s">
-        <v>1602</v>
-      </c>
       <c r="C297" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="20" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B298" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C298" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="C298" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="20" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B299" s="21" t="s">
         <v>1604</v>
       </c>
-      <c r="B299" s="21" t="s">
-        <v>1605</v>
-      </c>
       <c r="C299" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="20" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B300" s="21" t="s">
         <v>1606</v>
       </c>
-      <c r="B300" s="21" t="s">
-        <v>1607</v>
-      </c>
       <c r="C300" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="20" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B301" s="21" t="s">
         <v>1608</v>
       </c>
-      <c r="B301" s="21" t="s">
-        <v>1609</v>
-      </c>
       <c r="C301" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B302" s="21" t="s">
         <v>1610</v>
       </c>
-      <c r="B302" s="21" t="s">
-        <v>1611</v>
-      </c>
       <c r="C302" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B303" s="21" t="s">
         <v>1612</v>
       </c>
-      <c r="B303" s="21" t="s">
-        <v>1613</v>
-      </c>
       <c r="C303" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="20" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B304" s="21" t="s">
         <v>1614</v>
       </c>
-      <c r="B304" s="21" t="s">
-        <v>1615</v>
-      </c>
       <c r="C304" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B305" s="21" t="s">
         <v>1616</v>
       </c>
-      <c r="B305" s="21" t="s">
-        <v>1617</v>
-      </c>
       <c r="C305" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B306" s="21" t="s">
         <v>1618</v>
       </c>
-      <c r="B306" s="21" t="s">
-        <v>1619</v>
-      </c>
       <c r="C306" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="20" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B307" s="21" t="s">
         <v>1620</v>
       </c>
-      <c r="B307" s="21" t="s">
-        <v>1621</v>
-      </c>
       <c r="C307" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B308" s="21" t="s">
         <v>1622</v>
       </c>
-      <c r="B308" s="21" t="s">
-        <v>1623</v>
-      </c>
       <c r="C308" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="20" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B309" s="21" t="s">
         <v>1624</v>
       </c>
-      <c r="B309" s="21" t="s">
-        <v>1625</v>
-      </c>
       <c r="C309" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="20" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B310" s="21" t="s">
         <v>1626</v>
       </c>
-      <c r="B310" s="21" t="s">
-        <v>1627</v>
-      </c>
       <c r="C310" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="20" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B311" s="21" t="s">
         <v>1628</v>
       </c>
-      <c r="B311" s="21" t="s">
-        <v>1629</v>
-      </c>
       <c r="C311" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="20" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B312" s="21" t="s">
         <v>1630</v>
       </c>
-      <c r="B312" s="21" t="s">
-        <v>1631</v>
-      </c>
       <c r="C312" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="20" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B313" s="21" t="s">
         <v>1632</v>
       </c>
-      <c r="B313" s="21" t="s">
+      <c r="C313" s="21" t="s">
         <v>1633</v>
-      </c>
-      <c r="C313" s="21" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="20" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B314" s="21" t="s">
         <v>1635</v>
       </c>
-      <c r="B314" s="21" t="s">
+      <c r="C314" s="21" t="s">
         <v>1636</v>
-      </c>
-      <c r="C314" s="21" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="20" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B315" s="21" t="s">
         <v>1638</v>
       </c>
-      <c r="B315" s="21" t="s">
+      <c r="C315" s="21" t="s">
         <v>1639</v>
-      </c>
-      <c r="C315" s="21" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="20" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B316" s="21" t="s">
         <v>1641</v>
       </c>
-      <c r="B316" s="21" t="s">
-        <v>1642</v>
-      </c>
       <c r="C316" s="21" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="20" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B317" s="21" t="s">
         <v>1643</v>
       </c>
-      <c r="B317" s="21" t="s">
+      <c r="C317" s="21" t="s">
         <v>1644</v>
-      </c>
-      <c r="C317" s="21" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="20" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B318" s="21" t="s">
         <v>1646</v>
       </c>
-      <c r="B318" s="21" t="s">
+      <c r="C318" s="21" t="s">
         <v>1647</v>
-      </c>
-      <c r="C318" s="21" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="20" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B319" s="21" t="s">
         <v>1649</v>
       </c>
-      <c r="B319" s="21" t="s">
-        <v>1650</v>
-      </c>
       <c r="C319" s="21" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="20" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B320" s="21" t="s">
         <v>1651</v>
       </c>
-      <c r="B320" s="21" t="s">
-        <v>1652</v>
-      </c>
       <c r="C320" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="20" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B321" s="21" t="s">
         <v>1653</v>
       </c>
-      <c r="B321" s="21" t="s">
-        <v>1654</v>
-      </c>
       <c r="C321" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="20" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B322" s="21" t="s">
         <v>1655</v>
       </c>
-      <c r="B322" s="21" t="s">
-        <v>1656</v>
-      </c>
       <c r="C322" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="20" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B323" s="21" t="s">
         <v>1657</v>
       </c>
-      <c r="B323" s="21" t="s">
-        <v>1658</v>
-      </c>
       <c r="C323" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="20" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B324" s="21" t="s">
         <v>1659</v>
       </c>
-      <c r="B324" s="21" t="s">
-        <v>1660</v>
-      </c>
       <c r="C324" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
